--- a/hardware/KiCad/MCU-Link-Drone/bom/BOM.xlsx
+++ b/hardware/KiCad/MCU-Link-Drone/bom/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\Data\GitRepos\McuLink-Mini\hardware\KiCad\MCU-Link-Drone\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA478DDA-F907-4490-91A8-0B71638892EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5236F20B-14A1-4FF0-A107-CCEE4A4C71F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">200-SHF10501LDSM </t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>771-74LVC1T45GWQ100H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage converter 74LVC1T45GW-Q100/SOT363/SC-88 </t>
+  </si>
+  <si>
+    <t>74LVC1T45GW-Q100H</t>
+  </si>
+  <si>
+    <t>771-74LVC2T45DC125</t>
+  </si>
+  <si>
+    <t>dual voltage converter/Bus transceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC2T45DC,125 </t>
   </si>
 </sst>
 </file>
@@ -393,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="55.85546875" customWidth="1"/>
   </cols>
@@ -457,6 +475,40 @@
         <v>5.6</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
